--- a/Data Analysis/Data Analysis using Excel/Test data preparation.xlsx
+++ b/Data Analysis/Data Analysis using Excel/Test data preparation.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="sin(2 pi x)" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Confusion matrix" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'sin(2 pi x)'!$A$1:$B$25</definedName>
@@ -11,26 +12,59 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhbmf8b24EBEM4uDGWVVYy66/Agcg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miMKvrO5FXLmqwiToGeA03AcEiYxg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>X</t>
   </si>
   <si>
     <t>y(sin2pix)</t>
   </si>
+  <si>
+    <t>predicted</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>F1-score</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -40,6 +74,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,11 +95,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -134,11 +183,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1061441204"/>
-        <c:axId val="1913505989"/>
+        <c:axId val="2073777339"/>
+        <c:axId val="1487025567"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1061441204"/>
+        <c:axId val="2073777339"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -190,10 +239,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1913505989"/>
+        <c:crossAx val="1487025567"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1913505989"/>
+        <c:axId val="1487025567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -268,7 +317,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1061441204"/>
+        <c:crossAx val="2073777339"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -298,15 +347,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:ext cx="3810000" cy="2857500"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="79117617" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="860071830" name="Chart 1" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -322,6 +371,10 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1736,4 +1789,118 @@
   <autoFilter ref="$A$1:$B$25"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5">
+        <f>C3</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5">
+        <f>D4</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5">
+        <f>C4</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5">
+        <f>G3/(G3+G5)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5">
+        <f>D3</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <f>G3/(G3+G6)</f>
+        <v>0.8813559322</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5">
+        <f>2*C6*C7/(C6+C7)</f>
+        <v>0.8387096774</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>